--- a/Low_Envoy/Test LowEnvoy.xlsx
+++ b/Low_Envoy/Test LowEnvoy.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="120">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="187">
   <si>
     <t>Test Name</t>
   </si>
@@ -139,9 +136,6 @@
     <t>Filled password , not Filled confurm Pw</t>
   </si>
   <si>
-    <t>Test/Not</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -374,13 +368,220 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Receive password reset success email</t>
+  </si>
+  <si>
+    <t>Test/Not (200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status (Test 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success </t>
+  </si>
+  <si>
+    <t>Registration Successful. You will receive an email after Account Activation.</t>
+  </si>
+  <si>
+    <t>New Result (  If Change )</t>
+  </si>
+  <si>
+    <t>Password Reset is Successful. Please Log In.</t>
+  </si>
+  <si>
+    <t>Password Not Reset</t>
+  </si>
+  <si>
+    <t>Password Reseted.</t>
+  </si>
+  <si>
+    <t>Email Received</t>
+  </si>
+  <si>
+    <t>Load Ddashboard</t>
+  </si>
+  <si>
+    <t>Load Dashboard page</t>
+  </si>
+  <si>
+    <t>First Test 2016-3-9</t>
+  </si>
+  <si>
+    <t>First Test 2016-3-8</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Test Logo , Link</t>
+  </si>
+  <si>
+    <t>Sidebar Content</t>
+  </si>
+  <si>
+    <t>check Sidebar Components and Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refresh page when click </t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>calender</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>signOut</t>
+  </si>
+  <si>
+    <t>Not Visible</t>
+  </si>
+  <si>
+    <t>go to index page</t>
+  </si>
+  <si>
+    <t>refresh page , go to dashboard</t>
+  </si>
+  <si>
+    <t>go to case page</t>
+  </si>
+  <si>
+    <t>go to document page</t>
+  </si>
+  <si>
+    <t>go to calender page</t>
+  </si>
+  <si>
+    <t>go to trash page</t>
+  </si>
+  <si>
+    <t>load contact page</t>
+  </si>
+  <si>
+    <t>load document page</t>
+  </si>
+  <si>
+    <t>load profile page , header text is DASHBOARD need to change PROFILE</t>
+  </si>
+  <si>
+    <t>Click on button</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>action bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Create Case Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Contact Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Document button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Calender Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            profile Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           To do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Recent Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Calender</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Add Todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Secound Test 2016-3-9</t>
+  </si>
+  <si>
+    <t>test header</t>
+  </si>
+  <si>
+    <t>Go to create new case windoe</t>
+  </si>
+  <si>
+    <t>go to contact page</t>
+  </si>
+  <si>
+    <t>go to profile page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   Display New Todo in list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   Delete Todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Add Success message</t>
+  </si>
+  <si>
+    <t>Display To do add success Message</t>
+  </si>
+  <si>
+    <t>Display To do Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Delete success message</t>
+  </si>
+  <si>
+    <t>Display delete success message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           Ask conformation</t>
+  </si>
+  <si>
+    <t>Display confurm message when delete todo</t>
+  </si>
+  <si>
+    <t>Arive some times</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Search Case</t>
+  </si>
+  <si>
+    <t>New Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,13 +631,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -451,12 +698,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -474,12 +717,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,917 +1046,1520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="D67" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="72" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
-        <v>7</v>
+      <c r="C9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="J16" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="G17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13" t="s">
+      <c r="J17" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="G18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="J18" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="7" t="s">
+      <c r="G19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
+      <c r="J19" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
+      <c r="G20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="6" t="s">
+      <c r="G21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="J21" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="6" t="s">
+      <c r="H22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="I22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="5" t="s">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="6" t="s">
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="4" t="s">
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>44</v>
+      <c r="G24" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
         <v>21</v>
       </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>44</v>
+      <c r="G25" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="10"/>
-      <c r="D27" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="12" t="s">
+      <c r="I32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="12" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
+      <c r="J36" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8" t="s">
+      <c r="J37" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
+      <c r="G38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="8" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
+      <c r="G39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+      <c r="G42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>6</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>7</v>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="8" t="s">
+      <c r="I46" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="4" t="s">
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J48" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>90</v>
       </c>
-      <c r="G48" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D49" s="4" t="s">
+      <c r="G49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
         <v>91</v>
       </c>
-      <c r="F49" t="s">
+      <c r="J49" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="F50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D50" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" t="s">
-        <v>95</v>
-      </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>7</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
         <v>96</v>
       </c>
-      <c r="F52" t="s">
+      <c r="J52" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G52" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D53" s="18" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D54" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D55" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D54" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13" t="s">
+      <c r="E55" s="4"/>
+      <c r="F55" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D55" s="19" t="s">
+      <c r="G55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D56" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="5" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="G56" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="E58" s="4"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I59" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J61" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>117</v>
       </c>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D56" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13" t="s">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s">
-        <v>98</v>
-      </c>
-      <c r="I59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>9</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" t="s">
-        <v>98</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>119</v>
+      <c r="F68" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E71" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E72" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E73" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E74" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E75" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="24"/>
+      <c r="I75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E76" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
+        <v>170</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E80" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E81" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
+        <v>155</v>
+      </c>
+      <c r="G81" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E82" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" t="s">
+        <v>155</v>
+      </c>
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E83" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
+        <v>155</v>
+      </c>
+      <c r="G83" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E84" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E85" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E86" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D87" s="1">
+        <v>13</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="25"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="28"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="25"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="25"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" s="25"/>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E94" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E95" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
